--- a/Project_python/out/LDA/test_lda_training_files0.xlsx
+++ b/Project_python/out/LDA/test_lda_training_files0.xlsx
@@ -7502,7 +7502,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>x1: 0.19|x2: 0.12|x3: 0.16|x4: 0.00|x5: 0.10|x6: 0.00|x7: 0.19|x8: 0.09|x9: 0.12|x10: 0.23|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.09|x16: 0.21|x17: 0.00</t>
+          <t>x1: 0.19|x2: 0.12|x3: 0.16|x4: 0.00|x5: 0.10|x6: 0.00|x7: 0.19|x8: 0.09|x9: 0.12|x10: 0.22|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.09|x16: 0.21|x17: 0.00</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -7512,7 +7512,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>[0.00, 0.09, 0.23]</t>
+          <t>[0.00, 0.09, 0.22]</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
